--- a/biology/Botanique/Vitex_negundo/Vitex_negundo.xlsx
+++ b/biology/Botanique/Vitex_negundo/Vitex_negundo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vitex negundo est une espèce d'arbuste de la famille des Verbenaceae selon la classification classique, ou de celle des Lamiaceae selon la classification phylogénétique. Appelé aussi muguet bleu ou Troène de Chine, il ne faut pas la confondre avec d'autres espèces du même nom. L'arbuste ressemble au gattilier, Vitex agnus-castus, avec qui il a pu être confondu aussi.
 </t>
